--- a/관리산출물/프로젝트_최종결과보고서/TEST_통합관리문서1208.xlsx
+++ b/관리산출물/프로젝트_최종결과보고서/TEST_통합관리문서1208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\관리산출물\프로젝트_최종결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CC62D-F483-4DF1-BB8A-28A44670AB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A84388-2498-435A-85A8-C40D49E307C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,16 @@
     <sheet name="(사용하지 않음)Test_Case_API" sheetId="3" r:id="rId4"/>
     <sheet name="(사용하지X)Test Case_Result" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -164,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="299">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scenario</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UseCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,74 +875,18 @@
     <t>TC_17</t>
   </si>
   <si>
-    <t>추천 여행 Item 조회하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아요 추천 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행 Item 조회수별 추천 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>즐겨찾기 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>즐겨찾기한 여행 Item 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 페이지 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 여행지 조회하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 조회하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>즐겨찾기한 아이템이 존재하지 않습니다.' 라는 메시지 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 즐겨찾기에서 해제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 목록에 있는 게시물 중 한 게시물의 즐겨찾기 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로고침 후 해당 게시물이 즐겨찾기한 아이템 목록에서 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 상세페이지 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기한 아이템 목록에 있는 게시물 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 게시물의 상세페이지 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,10 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추천 여행 item 조회하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행지역 재 설정하기</t>
   </si>
   <si>
@@ -980,186 +922,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">여행지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Item </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>컨테이너 표시하기</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">여행지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Item </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>표시</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세 페이지 조회 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">여행 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Item </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 컨테이너를 클릭하</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">여행지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>Item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 상세 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행지 Item의 상세 페이지로 이동</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">여행 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>Item 상세 정보 조회</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">여행 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Item </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의 컨테이너를 클릭하고 나서</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세 정보 페이지를 로드</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">여행 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Item </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>연관 여행지 조회</t>
-    </r>
-  </si>
-  <si>
     <t>연관 여행지를 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,306 +941,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 3</t>
-  </si>
-  <si>
-    <t>SC 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -3</t>
-  </si>
-  <si>
-    <t>TC -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -4</t>
-  </si>
-  <si>
-    <t>TC -5</t>
-  </si>
-  <si>
-    <t>TC -6</t>
-  </si>
-  <si>
-    <t>TC -7</t>
-  </si>
-  <si>
-    <t>TC -8</t>
-  </si>
-  <si>
-    <t>TC -9</t>
-  </si>
-  <si>
-    <t>TC -10</t>
-  </si>
-  <si>
-    <t>TC -11</t>
-  </si>
-  <si>
-    <t>TC -12</t>
-  </si>
-  <si>
-    <t>TC - 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC - 15</t>
-  </si>
-  <si>
-    <t>TC - 16</t>
-  </si>
-  <si>
-    <t>TC - 17</t>
+    <t>TC - 19</t>
+  </si>
+  <si>
+    <t>최하위 가중치 카테고리 게시물들 좋아요 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 카테고리 게시물의 비중 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요가 없는 게시물의 순서가 조회수 순으로 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물에 즐겨찾기 등록 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(동행자 정보)</t>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(나이)</t>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(총 예산)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물의 비중 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 게시물 좋아요 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시물 상위 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지 좋아요, 즐겨찾기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나오지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행스타일별 가중치 카테고리 필터링</t>
+  </si>
+  <si>
+    <t>여행스타일 변경</t>
+  </si>
+  <si>
+    <t>여행스타일별 카테고리 가중치 업데이트</t>
+  </si>
+  <si>
+    <t>여행스타일 재 설정하기</t>
+  </si>
+  <si>
+    <t>여행스타일 재 설정 버튼을 클릭</t>
+  </si>
+  <si>
+    <t>여행스타일 재 설정 페이지 이동</t>
+  </si>
+  <si>
+    <t>AF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>여행지역직접입력또는추천받기버튼선택하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 3</t>
+  </si>
+  <si>
+    <t>TS - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 여행 지역 선택을 하지 않고 창을 이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재 로그인시 여행지역 선택화면부터 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 7</t>
+  </si>
+  <si>
+    <t>TS - 8</t>
+  </si>
+  <si>
+    <t>TS - 9</t>
+  </si>
+  <si>
+    <t>TS - 10</t>
+  </si>
+  <si>
+    <t>TS - 11</t>
+  </si>
+  <si>
+    <t>TS - 12</t>
+  </si>
+  <si>
+    <t>TS - 13</t>
+  </si>
+  <si>
+    <t>TS - 14</t>
+  </si>
+  <si>
+    <t>TS - 15</t>
+  </si>
+  <si>
+    <t>TS - 16</t>
+  </si>
+  <si>
+    <t>TS - 17</t>
+  </si>
+  <si>
+    <t>100개 게시물 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 직접 선택하여 광주 동구로 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100개 개시물 표시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요된 버튼 클릭 한번 더 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 버튼 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아요 버튼 비활성화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC_2</t>
+  </si>
+  <si>
+    <t>UC_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC_3</t>
+  </si>
+  <si>
+    <t>좋아요 기반 최우선 정렬기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS - 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 아이디로 최하위 게시물을 좋아요 누름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 아이디로 확인했을 시 동일 지역에서 순위 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위 10번째 게시물로 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Scenario Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기한 게시물 조회하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 페이지 버튼 클릭</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 목록</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 조회하기</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물이 존재하지 않습니다.' 라는 메시지 출력</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 즐겨찾기에서 해제하기</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 목록에 있는 게시물 중 한 게시물의 즐겨찾기 버튼 클릭</t>
+  </si>
+  <si>
+    <t>새로고침 후 해당 게시물이 즐겨찾기한 여행 게시물 목록에서 사라짐</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 상세페이지 조회</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 목록에 있는 게시물 클릭</t>
+  </si>
+  <si>
+    <t>여행지 여행 게시물 컨테이너 표시하기</t>
+  </si>
+  <si>
+    <t>여행지 여행 게시물 표시</t>
+  </si>
+  <si>
+    <t>여행 여행 게시물 의 컨테이너를 클릭하</t>
+  </si>
+  <si>
+    <t>여행지 여행 게시물의 상세 페이지로 이동</t>
+  </si>
+  <si>
+    <t>여행 여행 게시물 상세 정보 조회</t>
+  </si>
+  <si>
+    <t>여행 여행 게시물 의 컨테이너를 클릭하고 나서</t>
+  </si>
+  <si>
+    <t>여행 여행 게시물 연관 여행지 조회</t>
+  </si>
+  <si>
+    <t>여행 여행 게시물 조회수별 추천 기능</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 여행 게시물 페이지로 이동</t>
+  </si>
+  <si>
+    <t>즐겨찾기한 여행 게시물 페이지로 이동</t>
+  </si>
+  <si>
+    <t>TS -18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC - 18</t>
-  </si>
-  <si>
-    <t>TC - 19</t>
-  </si>
-  <si>
-    <t>TC - 23</t>
-  </si>
-  <si>
-    <t>TC - 24</t>
-  </si>
-  <si>
-    <t>TC - 25</t>
-  </si>
-  <si>
-    <t>TC - 26</t>
-  </si>
-  <si>
-    <t>TC - 27</t>
-  </si>
-  <si>
-    <t>TC - 28</t>
-  </si>
-  <si>
-    <t>TC - 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC - 30</t>
-  </si>
-  <si>
-    <t>TC - 31</t>
-  </si>
-  <si>
-    <t>TC - 32</t>
-  </si>
-  <si>
-    <t>TC - 33</t>
-  </si>
-  <si>
-    <t>TC - 34</t>
-  </si>
-  <si>
-    <t>최하위 가중치 카테고리 게시물들 좋아요 클릭 후 새로고침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 카테고리 게시물의 비중 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요가 없는 게시물의 순서가 조회수 순으로 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물에 즐겨찾기 등록 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(동행자 정보)</t>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(나이)</t>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(총 예산)</t>
-  </si>
-  <si>
-    <t>PASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물의 비중 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하위 게시물 좋아요 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시물 상위 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 페이지 좋아요, 즐겨찾기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 페이지에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 페이지에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC - 29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC - 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통과 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통과여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나오지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 여행지역과여행스타일선택하기</t>
-  </si>
-  <si>
-    <t>여행스타일별 가중치 카테고리 필터링</t>
-  </si>
-  <si>
-    <t>여행스타일 변경</t>
-  </si>
-  <si>
-    <t>여행스타일별 카테고리 가중치 업데이트</t>
-  </si>
-  <si>
-    <t>여행스타일 재 설정하기</t>
-  </si>
-  <si>
-    <t>여행스타일 재 설정 버튼을 클릭</t>
-  </si>
-  <si>
-    <t>여행스타일 재 설정 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC - 20</t>
+  </si>
+  <si>
+    <t>TC - 21</t>
+  </si>
+  <si>
+    <t>TC - 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1515,13 +1334,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1601,7 +1413,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1637,6 +1452,12 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1661,8 +1482,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FC3F622B-20B2-4F59-83DB-2A3146E26C41}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1693,10 +1514,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A9A322D-6323-4880-891B-23B1E90E396E}" name="표1_3" displayName="표1_3" ref="A1:I40" totalsRowShown="0">
   <autoFilter ref="A1:I40" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B614B1C8-1F11-4ED8-AAC0-81AC2CF881B7}" name="Scenario"/>
+    <tableColumn id="1" xr3:uid="{B614B1C8-1F11-4ED8-AAC0-81AC2CF881B7}" name="Basic Flow #" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{C3AFE142-3EB3-4311-A088-9B1AB1D5996D}" name="UseCase"/>
-    <tableColumn id="3" xr3:uid="{42A7E5D5-609A-4078-8EC2-CC820E7BFFB8}" name="BasicFlow#"/>
-    <tableColumn id="8" xr3:uid="{7C1714CF-1424-4276-B386-5418BEB0C882}" name="AF"/>
+    <tableColumn id="3" xr3:uid="{42A7E5D5-609A-4078-8EC2-CC820E7BFFB8}" name="Test Scenario Name"/>
+    <tableColumn id="8" xr3:uid="{7C1714CF-1424-4276-B386-5418BEB0C882}" name="AF" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{3E70DEAB-D762-4695-9750-77BC46DB73B3}" name="TestCaseID"/>
     <tableColumn id="10" xr3:uid="{A4D82EE7-2D6F-41B2-9B88-F4600CDBF089}" name="Input Data Set"/>
     <tableColumn id="11" xr3:uid="{0A6680C4-4B1D-43FB-89A5-377C0179DA42}" name="Expected Result"/>
@@ -1708,12 +1529,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D52506D-BA42-4042-88F4-A531DE2A5E7C}" name="표1_4" displayName="표1_4" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D52506D-BA42-4042-88F4-A531DE2A5E7C}" name="표1_4" displayName="표1_4" ref="A1:I29" totalsRowShown="0">
+  <autoFilter ref="A1:I29" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1545856C-C48C-4DCB-BB8F-EE9F17D90175}" name="Scenario"/>
+    <tableColumn id="1" xr3:uid="{1545856C-C48C-4DCB-BB8F-EE9F17D90175}" name="Basic Flow #" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A782EFBD-2E71-4F77-8545-E1B7E9937C5B}" name="UseCase"/>
-    <tableColumn id="3" xr3:uid="{AC6CFB44-B6CA-4464-8A55-60EF1D26DEBA}" name="BasicFlow#"/>
+    <tableColumn id="3" xr3:uid="{AC6CFB44-B6CA-4464-8A55-60EF1D26DEBA}" name="Test Scenario Name"/>
     <tableColumn id="8" xr3:uid="{6F28380A-216C-4F9D-AA4B-19307D2610EA}" name="AF"/>
     <tableColumn id="9" xr3:uid="{E83BBF83-433C-4C78-B6E5-99B593A3098A}" name="TestCaseID"/>
     <tableColumn id="10" xr3:uid="{144E1671-F8F8-46A3-B5AB-5754C180CB48}" name="Input Data Set"/>
@@ -1729,9 +1550,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0F02578B-093D-4E35-B458-3A6A885D2E95}" name="표1_45" displayName="표1_45" ref="A1:I18" totalsRowShown="0">
   <autoFilter ref="A1:I18" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA4B6438-499A-4280-B276-482F195633E3}" name="Scenario"/>
+    <tableColumn id="1" xr3:uid="{AA4B6438-499A-4280-B276-482F195633E3}" name="BasicFlow#"/>
     <tableColumn id="2" xr3:uid="{8BAB7741-DFC7-4671-AE3D-C2F3318FCCBB}" name="UseCase"/>
-    <tableColumn id="3" xr3:uid="{993BBC56-9B35-4055-87FB-5360F73868A1}" name="BasicFlow#"/>
+    <tableColumn id="3" xr3:uid="{993BBC56-9B35-4055-87FB-5360F73868A1}" name="Test Scenario Name"/>
     <tableColumn id="8" xr3:uid="{97C22ACD-1E7F-4DD8-B737-798D196BA4E4}" name="AF"/>
     <tableColumn id="9" xr3:uid="{09168B68-D5F2-4266-8BF0-31E71E06C4CB}" name="TestCaseID"/>
     <tableColumn id="10" xr3:uid="{E894A4D3-B233-4EAA-B66F-75BD64252F1A}" name="Input Data Set"/>
@@ -2060,17 +1881,17 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="73.58203125" customWidth="1"/>
     <col min="7" max="7" width="46.83203125" customWidth="1"/>
     <col min="8" max="8" width="42.58203125" customWidth="1"/>
@@ -2078,20 +1899,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2103,47 +1924,47 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>225</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
         <v>159</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>225</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
         <v>139</v>
@@ -2155,264 +1976,314 @@
         <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>226</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
         <v>162</v>
       </c>
-      <c r="E4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
         <v>163</v>
       </c>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
         <v>164</v>
       </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
         <v>172</v>
       </c>
-      <c r="G6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" t="s">
-        <v>284</v>
-      </c>
-      <c r="H9" t="s">
-        <v>284</v>
-      </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" t="s">
-        <v>283</v>
-      </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" t="s">
         <v>173</v>
       </c>
-      <c r="G12" t="s">
-        <v>284</v>
-      </c>
-      <c r="H12" t="s">
-        <v>284</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" t="s">
-        <v>160</v>
+      <c r="G14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="7:7" x14ac:dyDescent="0.45">
@@ -2420,19 +2291,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I16:I1048576 I1:I13">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="FAIL">
+  <conditionalFormatting sqref="I16:I1048576 I1:I4 I6:I14">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 A9 A11 A13 A6 F7:I7">
+  <conditionalFormatting sqref="F8:I8 C8">
     <cfRule type="containsText" priority="2" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",A6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FAIL",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8 A10 A12 A5">
+  <conditionalFormatting sqref="A6:A14">
     <cfRule type="containsText" priority="1" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",A5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("FAIL",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,19 +2319,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="6.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="40.4140625" customWidth="1"/>
     <col min="7" max="7" width="40.5" customWidth="1"/>
     <col min="8" max="8" width="44.83203125" customWidth="1"/>
@@ -2468,20 +2339,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2493,371 +2364,455 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" t="s">
         <v>229</v>
       </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="G9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" t="s">
-        <v>307</v>
-      </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G18" s="11"/>
+      <c r="H18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2877,16 +2832,16 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" customWidth="1"/>
     <col min="6" max="6" width="50.58203125" customWidth="1"/>
     <col min="7" max="7" width="58.1640625" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
@@ -2895,19 +2850,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2919,176 +2874,176 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>241</v>
+      <c r="A2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2.1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
         <v>192</v>
       </c>
-      <c r="C2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" t="s">
-        <v>207</v>
-      </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PASS/FAIL">
       <formula>NOT(ISERROR(SEARCH("PASS/FAIL",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3522,7 +3477,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -3531,10 +3486,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3549,7 +3504,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -3558,10 +3513,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3576,7 +3531,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -3585,10 +3540,10 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -5039,7 +4994,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -5051,7 +5006,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5060,7 +5015,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -5072,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5081,7 +5036,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -5093,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
